--- a/andijan_indeks_2022_10.xlsx
+++ b/andijan_indeks_2022_10.xlsx
@@ -51,19 +51,19 @@
     <t xml:space="preserve">Андижон шаҳри</t>
   </si>
   <si>
-    <t xml:space="preserve">Избосган</t>
+    <t xml:space="preserve">Избоскан</t>
   </si>
   <si>
     <t xml:space="preserve">Олтинкўл</t>
   </si>
   <si>
-    <t xml:space="preserve">Андижон тумани</t>
+    <t xml:space="preserve">Андижон т.</t>
   </si>
   <si>
     <t xml:space="preserve">Балиқчи</t>
   </si>
   <si>
-    <t xml:space="preserve">Бўз</t>
+    <t xml:space="preserve">Бўстон</t>
   </si>
   <si>
     <t xml:space="preserve">Асака</t>

--- a/andijan_indeks_2022_10.xlsx
+++ b/andijan_indeks_2022_10.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.usmonov\Desktop\consumer_sentiment_oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.usmonov\Desktop\consumer_sentiment_oct_jaloliddin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC4BE86-C39E-4893-A91E-A0D9BD54B8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F4400-0DE8-4850-A27E-35C596184EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="180" windowWidth="16575" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="16575" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="problems_district" sheetId="2" r:id="rId2"/>
+    <sheet name="andijan_graph" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$J$1</definedName>
   </definedNames>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>district</t>
   </si>
@@ -186,6 +190,15 @@
   </si>
   <si>
     <t>Мактабгача таълим муассаси (боғча) билан боғлиқ муаммо</t>
+  </si>
+  <si>
+    <t>Кутилмалар индекси</t>
+  </si>
+  <si>
+    <t>Умумий индекс</t>
+  </si>
+  <si>
+    <t>Жорий ҳолат индекси</t>
   </si>
 </sst>
 </file>
@@ -221,8 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -238,6 +253,1628 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1533494392746371E-2"/>
+          <c:y val="0.15106172657951503"/>
+          <c:w val="0.92760231894090162"/>
+          <c:h val="0.6845391241079104"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>andijan_graph!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кутилмалар индекси</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>andijan_graph!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>andijan_graph!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-718F-4E22-837A-B7F217983EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>andijan_graph!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Умумий индекс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8095238095238097E-2"/>
+                  <c:y val="3.60076558270844E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-718F-4E22-837A-B7F217983EDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8095238095238097E-2"/>
+                  <c:y val="2.4627856673072338E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-718F-4E22-837A-B7F217983EDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.4766911238367864E-2"/>
+                  <c:y val="-1.7860453170422088E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-718F-4E22-837A-B7F217983EDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.839477451682176E-2"/>
+                  <c:y val="-2.2449583004089699E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-718F-4E22-837A-B7F217983EDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3198950131232289E-3"/>
+                  <c:y val="-6.0089768298783632E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-718F-4E22-837A-B7F217983EDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1536123774001937E-3"/>
+                  <c:y val="3.9331116151653765E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.5640419947506561E-2"/>
+                      <c:h val="5.8180417876766803E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-718F-4E22-837A-B7F217983EDC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>andijan_graph!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>andijan_graph!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-718F-4E22-837A-B7F217983EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>andijan_graph!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Жорий ҳолат индекси</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="sq">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>andijan_graph!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>andijan_graph!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-718F-4E22-837A-B7F217983EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1303771424"/>
+        <c:axId val="1298240736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1303771424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298240736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1298240736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303771424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3094733158355208E-2"/>
+          <c:y val="1.9728727409053674E-2"/>
+          <c:w val="0.85384096874254356"/>
+          <c:h val="0.15084295000916531"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CFDD62-FFDA-4507-91FA-52DA6721C82E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="index"/>
+      <sheetName val="andijan_graph"/>
+      <sheetName val="problems_district"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1">
+            <v>44197</v>
+          </cell>
+          <cell r="C1">
+            <v>44287</v>
+          </cell>
+          <cell r="D1">
+            <v>44378</v>
+          </cell>
+          <cell r="E1">
+            <v>44470</v>
+          </cell>
+          <cell r="F1">
+            <v>44562</v>
+          </cell>
+          <cell r="G1">
+            <v>44652</v>
+          </cell>
+          <cell r="H1">
+            <v>44743</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Кутилмалар индекси</v>
+          </cell>
+          <cell r="B2">
+            <v>167</v>
+          </cell>
+          <cell r="C2">
+            <v>157</v>
+          </cell>
+          <cell r="D2">
+            <v>148</v>
+          </cell>
+          <cell r="E2">
+            <v>154</v>
+          </cell>
+          <cell r="F2">
+            <v>171</v>
+          </cell>
+          <cell r="G2">
+            <v>166</v>
+          </cell>
+          <cell r="H2">
+            <v>147</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Умумий индекс</v>
+          </cell>
+          <cell r="B3">
+            <v>139</v>
+          </cell>
+          <cell r="C3">
+            <v>139</v>
+          </cell>
+          <cell r="D3">
+            <v>136</v>
+          </cell>
+          <cell r="E3">
+            <v>143</v>
+          </cell>
+          <cell r="F3">
+            <v>146</v>
+          </cell>
+          <cell r="G3">
+            <v>143</v>
+          </cell>
+          <cell r="H3">
+            <v>137</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Жорий ҳолат индекси</v>
+          </cell>
+          <cell r="B4">
+            <v>112</v>
+          </cell>
+          <cell r="C4">
+            <v>121</v>
+          </cell>
+          <cell r="D4">
+            <v>124</v>
+          </cell>
+          <cell r="E4">
+            <v>132</v>
+          </cell>
+          <cell r="F4">
+            <v>122</v>
+          </cell>
+          <cell r="G4">
+            <v>120</v>
+          </cell>
+          <cell r="H4">
+            <v>127</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -2707,4 +4344,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2FB99F-1ED8-4387-A057-239DEFF13D30}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44378</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44470</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44562</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44652</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44743</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>167</v>
+      </c>
+      <c r="C2">
+        <v>157</v>
+      </c>
+      <c r="D2" s="2">
+        <v>148</v>
+      </c>
+      <c r="E2">
+        <v>154</v>
+      </c>
+      <c r="F2">
+        <v>171</v>
+      </c>
+      <c r="G2">
+        <v>166</v>
+      </c>
+      <c r="H2">
+        <v>147</v>
+      </c>
+      <c r="I2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2">
+        <v>139</v>
+      </c>
+      <c r="D3" s="2">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2">
+        <v>143</v>
+      </c>
+      <c r="F3" s="2">
+        <v>146</v>
+      </c>
+      <c r="G3" s="2">
+        <v>143</v>
+      </c>
+      <c r="H3" s="2">
+        <v>137</v>
+      </c>
+      <c r="I3" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>122</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <v>127</v>
+      </c>
+      <c r="I4">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>